--- a/InputFiles/CCDI/TC02_CCDI_phs000720_Filetype-dicom_Tumorclassf-Metastatic.xlsx
+++ b/InputFiles/CCDI/TC02_CCDI_phs000720_Filetype-dicom_Tumorclassf-Metastatic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatekaraa\Automation\03-31-25\Commons_Automation\InputFiles\CCDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatekaraa\Automation\05-01-25\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B11FBC5-0D4A-4898-AA6E-2645ACD7AC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC5455D-2F52-4351-BFC5-22091D298DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -196,10 +196,7 @@
     std.dbgap_accession = 'phs000720' and smp.tumor_classification = 'Metastatic' and path.file_type ='dicom';</t>
   </si>
   <si>
-    <t>with file_data as (
-select file_name, data_category,file_type, file_size,file_access,  file_description,"sample.id" from df_sequencing_file
-union
-select file_name, data_category,file_type, file_size,file_access,  file_description,"sample.id" from df_pathology_file)
+    <t>with file_data as (select file_name, data_category,file_type, file_size,file_access,  file_description,"sample.id" from df_pathology_file)
 SELECT DISTINCT
     fd.file_name AS "File Name",
     fd.data_category AS "Data Category",
@@ -207,13 +204,13 @@
     fd.file_type AS "File Type",
     CASE     
         WHEN fd.file_size &gt;= 1024 * 1024 * 1024 THEN 
-            ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB' 
+            RTRIM(RTRIM(printf('%.2f', fd.file_size / (1024.0 * 1024.0 * 1024.0)), '0'), '.') || ' GB'
         WHEN fd.file_size &gt;= 1024 * 1024 THEN 
-            ROUND(fd.file_size / (1024.0 * 1024.0), 2) || ' MB' 
+            RTRIM(RTRIM(printf('%.2f', fd.file_size / (1024.0 * 1024.0)), '0'), '.') || ' MB'
         WHEN fd.file_size &gt;= 1024 THEN 
-            ROUND(fd.file_size / 1024.0, 2) || ' KB' 
+            RTRIM(RTRIM(printf('%.2f', fd.file_size / 1024.0), '0'), '.') || ' KB'
         ELSE 
-            ROUND(fd.file_size, 2) || ' Bytes' 
+            RTRIM(RTRIM(printf('%.2f', fd.file_size), '0'), '.') || ' Bytes'
     END AS "File Size",
     fd.file_access AS "File Access",
     std.dbgap_accession AS "Study ID",
@@ -228,8 +225,10 @@
 JOIN 
     file_data fd ON smp.id = fd."sample.id"
 WHERE 
-    std.dbgap_accession = 'phs000720' and fd.file_type ='dicom' and smp.tumor_classification = 'Metastatic'
-LIMIT 100;</t>
+    std.dbgap_accession = 'phs000720' 
+    AND fd.file_type = 'dicom' 
+    AND smp.tumor_classification = 'Metastatic'
+Order by fd.file_name asc LIMIT 100;</t>
   </si>
 </sst>
 </file>
@@ -632,18 +631,18 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="75.85546875" customWidth="1"/>
-    <col min="4" max="4" width="70.140625" customWidth="1"/>
-    <col min="5" max="5" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="75.81640625" customWidth="1"/>
+    <col min="4" max="4" width="70.1796875" customWidth="1"/>
+    <col min="5" max="5" width="63.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -660,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -677,7 +676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -686,7 +685,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -695,7 +694,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -704,11 +703,11 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C7" s="1"/>
     </row>
   </sheetData>

--- a/InputFiles/CCDI/TC02_CCDI_phs000720_Filetype-dicom_Tumorclassf-Metastatic.xlsx
+++ b/InputFiles/CCDI/TC02_CCDI_phs000720_Filetype-dicom_Tumorclassf-Metastatic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatekaraa\Automation\05-01-25\Commons_Automation\InputFiles\CCDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leungvw/git2/Commons_Automation/InputFiles/CCDI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC5455D-2F52-4351-BFC5-22091D298DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03272A04-0EEE-8C4F-81AA-CEA73E249357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="35080" windowHeight="22500" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,133 +111,414 @@
     <t>TC02_CCDI_phs000720_Filetype-dicom_Tumorclassf-Metastatic_WebData.xlsx</t>
   </si>
   <si>
-    <t>SELECT DISTINCT
-   smp.sample_id AS "Sample ID",
-    prt.participant_id AS "Participant ID", std.dbgap_accession AS "Study ID", smp.anatomic_site AS "Sample Anatomic Site", 
-    COALESCE(CASE WHEN smp.participant_age_at_collection = -999 THEN 'Not Reported' ELSE smp.participant_age_at_collection END, 0) AS "Age at Sample Collection (days)",
-    COALESCE(smp.sample_tumor_status, '') AS "Sample Tumor Status",
-    COALESCE(smp.tumor_classification, '') AS "Sample Tumor Classification",
-   dgn.diagnosis as "Sample Diagnosis"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-LEFT JOIN 
-    df_diagnosis dgn ON smp."id" = dgn."sample.id"
-LEFT JOIN 
-    df_sequencing_file seq ON smp.id = seq."sample.id"
-LEFT JOIN 
-    df_pathology_file path ON smp.id = path."sample.id"
-WHERE 
-std.dbgap_accession = 'phs000720' and smp.tumor_classification = 'Metastatic' and path.file_type ='dicom'
-AND smp.sample_id IS NOT NULL
-ORDER BY 
-   smp.sample_id ASC
-;</t>
-  </si>
-  <si>
-    <t>with diagnosis1 as (
-select dgn."participant.id", group_concat(dgn.age_at_diagnosis,';') as age, group_concat(dgn.diagnosis,';') as diag,group_concat(dgn.anatomic_site,';') as ant_site from df_diagnosis dgn where dgn."participant.id" is not null group by dgn."participant.id" ),
-diagnosis2 as (select "participant.id",  group_concat(diagnosis,';') as diag from (select distinct "participant.id", diagnosis from df_diagnosis  where "participant.id" is not null )  group by "participant.id" ),
-diagnosis3 as (select "participant.id",  group_concat(anatomic_site,';') as ant_site from (select distinct "participant.id", anatomic_site from df_diagnosis where "participant.id" is not null ) group by "participant.id" )
+    <t>/* Participants — TC02 for phs000720
+   Filters:
+     - File Type = 'dicom'
+     - Sample tumor_classification = 'Metastatic'
+   Output columns:
+     Participant ID | Study ID | Sex at Birth | Race | Diagnosis | Diagnosis Anatomic Site
+     | Diagnosis Category | Age at Diagnosis (days) | Treatment Type | Last Known Survival Status
+*/
+WITH base_study AS (
+  SELECT std.id AS study_row_id
+  FROM df_study std
+  WHERE std.dbgap_accession = 'phs000720'
+),
+-- participants in this study (through consent_group)
+study_participants AS (
+  SELECT prt.id AS participant_row_id
+  FROM df_participant prt
+  JOIN df_consent_group cg
+    ON prt."consent_group.id" = cg.id
+  WHERE cg."study.id" IN (SELECT study_row_id FROM base_study)
+),
+-- diagnosis CTEs: do DISTINCT in a subquery to avoid
+-- "DISTINCT aggregates must have exactly one argument"
+diagnosis_age AS (
+  SELECT
+    d."participant.id" AS participant_row_id,
+    GROUP_CONCAT(
+      CASE
+        WHEN COALESCE(CAST(d.age_at_diagnosis AS TEXT), '') IN ('', '-999')
+          THEN NULL
+        ELSE CAST(d.age_at_diagnosis AS TEXT)
+      END,
+      ';'
+    ) AS age_days_list
+  FROM df_diagnosis d
+  WHERE d."participant.id" IS NOT NULL
+  GROUP BY d."participant.id"
+),
+diagnosis_diag AS (
+  SELECT
+    t."participant.id" AS participant_row_id,
+    GROUP_CONCAT(t.diagnosis, ';') AS diagnosis_list
+  FROM (
+    SELECT DISTINCT
+      d."participant.id",
+      COALESCE(d.diagnosis, '') AS diagnosis
+    FROM df_diagnosis d
+    WHERE d."participant.id" IS NOT NULL
+  ) t
+  GROUP BY t."participant.id"
+),
+diagnosis_site AS (
+  SELECT
+    t."participant.id" AS participant_row_id,
+    GROUP_CONCAT(t.anatomic_site, ';') AS diagnosis_anatomic_site_list
+  FROM (
+    SELECT DISTINCT
+      d."participant.id",
+      COALESCE(d.anatomic_site, '') AS anatomic_site
+    FROM df_diagnosis d
+    WHERE d."participant.id" IS NOT NULL
+  ) t
+  GROUP BY t."participant.id"
+),
+diagnosis_cat AS (
+  SELECT
+    t."participant.id" AS participant_row_id,
+    GROUP_CONCAT(t.diagnosis_category, ';') AS diagnosis_category_list
+  FROM (
+    SELECT DISTINCT
+      d."participant.id",
+      COALESCE(d.diagnosis_category, '') AS diagnosis_category
+    FROM df_diagnosis d
+    WHERE d."participant.id" IS NOT NULL
+  ) t
+  GROUP BY t."participant.id"
+),
+-- participants having at least one Metastatic sample with a dicom pathology file
+dicom_met_participants AS (
+  SELECT DISTINCT
+    smp."participant.id" AS participant_row_id
+  FROM df_sample smp
+  JOIN df_pathology_file pf ON smp.id = pf."sample.id"
+  WHERE smp.tumor_classification = 'Metastatic'
+    AND pf.file_type = 'dicom'
+)
 SELECT DISTINCT
-    prt.participant_id AS "Participant ID",
-    std.dbgap_accession AS "Study ID",
-    COALESCE(prt.sex_at_birth, '') AS "Sex",
-    COALESCE(prt.race, '') AS "Race",
-	dgn2.diag AS "Diagnosis",
-	dgn3.ant_site AS "Diagnosis Anatomic Site",
-	   COALESCE(CASE WHEN dgn1.age = '-999' THEN 'Not Reported' ELSE dgn1.age END, "") AS "Age at Diagnosis (days)",
-	null AS "Treatment Type",
-	srv.last_known_survival_status AS "Last Known Survival Status"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    diagnosis1 dgn1 ON prt.id = dgn1."participant.id" 
-LEFT JOIN 
-    diagnosis2 dgn2 ON prt.id = dgn2."participant.id"
-LEFT JOIN 
-    diagnosis3 dgn3 ON prt.id = dgn3."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-LEFT JOIN 
-    df_sequencing_file seq ON smp.id = seq."sample.id"
-LEFT JOIN 
-    df_pathology_file path ON smp.id = path."sample.id"
-WHERE 
-    std.dbgap_accession = 'phs000720' and smp.tumor_classification = 'Metastatic' and path.file_type ='dicom'
-ORDER BY 
-    prt.participant_id ASC 
-;</t>
-  </si>
-  <si>
-    <t>SELECT
-    COUNT(DISTINCT std.dbgap_accession) AS "Studies",
-    COUNT(DISTINCT prt.participant_id) AS "Participants",
-    COUNT(DISTINCT smp.sample_id) AS "Samples",
-    COUNT(DISTINCT path.id) AS "Files"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-LEFT JOIN 
-    df_sequencing_file seq ON smp.id = seq."sample.id"
-LEFT JOIN 
-    df_pathology_file path ON smp.id = path."sample.id"
-WHERE 
-    std.dbgap_accession = 'phs000720' and smp.tumor_classification = 'Metastatic' and path.file_type ='dicom';</t>
-  </si>
-  <si>
-    <t>with file_data as (select file_name, data_category,file_type, file_size,file_access,  file_description,"sample.id" from df_pathology_file)
+  prt.participant_id                                  AS "Participant ID",
+  'phs000720'                                         AS "Study ID",
+  COALESCE(prt.sex_at_birth, '')                      AS "Sex at Birth",
+  COALESCE(prt.race, '')                              AS "Race",
+  COALESCE(dd.diagnosis_list, '')                     AS "Diagnosis",
+  COALESCE(ds.diagnosis_anatomic_site_list, '')       AS "Diagnosis Anatomic Site",
+  COALESCE(dc.diagnosis_category_list, '')            AS "Diagnosis Category",
+  COALESCE(da.age_days_list, '')                      AS "Age at Diagnosis (days)",
+  ''                                                  AS "Treatment Type",
+  COALESCE(srv.last_known_survival_status, '')        AS "Last Known Survival Status"
+FROM study_participants sp
+JOIN df_participant prt
+  ON prt.id = sp.participant_row_id
+-- enforce TC02 filters via this inner-join CTE
+JOIN dicom_met_participants dmp
+  ON prt.id = dmp.participant_row_id
+LEFT JOIN diagnosis_diag dd
+  ON prt.id = dd.participant_row_id
+LEFT JOIN diagnosis_site ds
+  ON prt.id = ds.participant_row_id
+LEFT JOIN diagnosis_cat dc
+  ON prt.id = dc.participant_row_id
+LEFT JOIN diagnosis_age da
+  ON prt.id = da.participant_row_id
+LEFT JOIN df_survival srv
+  ON prt.id = srv."participant.id"
+ORDER BY prt.participant_id ASC;</t>
+  </si>
+  <si>
+    <t>/* Stat Bar — TC02 for phs000720
+   Filters:
+     - Study = phs000720
+     - Sample tumor_classification = 'Metastatic'
+     - File Type = 'dicom'
+   Output:
+     Studies | Participants | Samples | Files
+*/
+WITH base_study AS (
+  SELECT std.id AS study_row_id, std.dbgap_accession
+  FROM df_study std
+  WHERE std.dbgap_accession = 'phs000720'
+),
+-- participants in this study (via consent_group)
+study_participants AS (
+  SELECT DISTINCT prt.id AS participant_row_id
+  FROM df_participant prt
+  JOIN df_consent_group cg
+    ON prt."consent_group.id" = cg.id
+  WHERE cg."study.id" IN (SELECT study_row_id FROM base_study)
+),
+-- metastatic samples for participants in this study
+eligible_samples AS (
+  SELECT DISTINCT
+    smp.id               AS sample_row_id,
+    smp."participant.id" AS participant_row_id
+  FROM df_sample smp
+  JOIN study_participants sp
+    ON sp.participant_row_id = smp."participant.id"
+  WHERE COALESCE(smp.tumor_classification, '') = 'Metastatic'
+),
+-- all sequencing + pathology files (we'll filter to dicom later)
+file_data AS (
+  SELECT
+    id               AS file_row_id,
+    file_name,
+    file_type,
+    "sample.id"      AS sample_row_id
+  FROM df_sequencing_file
+  UNION ALL
+  SELECT
+    id               AS file_row_id,
+    file_name,
+    file_type,
+    "sample.id"      AS sample_row_id
+  FROM df_pathology_file
+),
+-- files that:
+--  * belong to metastatic samples in this study
+--  * have file_type = 'dicom'
+eligible_files AS (
+  SELECT DISTINCT
+    fd.file_row_id,
+    fd.sample_row_id,
+    es.participant_row_id
+  FROM file_data fd
+  JOIN eligible_samples es
+    ON fd.sample_row_id = es.sample_row_id
+  WHERE LOWER(COALESCE(fd.file_type, '')) = 'dicom'
+),
+final_participants AS (
+  SELECT DISTINCT participant_row_id
+  FROM eligible_files
+),
+final_samples AS (
+  SELECT DISTINCT sample_row_id
+  FROM eligible_files
+),
+final_files AS (
+  SELECT DISTINCT file_row_id
+  FROM eligible_files
+)
+SELECT
+  1                                         AS "Studies",
+  (SELECT COUNT(*) FROM final_participants) AS "Participants",
+  (SELECT COUNT(*) FROM final_samples)      AS "Samples",
+  (SELECT COUNT(*) FROM final_files)        AS "Files";</t>
+  </si>
+  <si>
+    <t>/* Samples — TC02 for phs000720
+   Filters:
+     - Study = phs000720
+     - Sample tumor_classification = 'Metastatic'
+     - File Type = 'dicom'
+   Output columns:
+     Sample ID | Participant ID | Study ID | Sample Anatomic Site |
+     Age at Sample Collection (days) | Sample Tumor Status |
+     Sample Tumor Classification | Sample Diagnosis | Diagnosis Category
+*/
+WITH base_study AS (
+  SELECT std.id AS study_row_id, std.dbgap_accession
+  FROM df_study std
+  WHERE std.dbgap_accession = 'phs000720'
+),
+-- participants in this study (via consent_group)
+study_participants AS (
+  SELECT DISTINCT prt.id AS participant_row_id
+  FROM df_participant prt
+  JOIN df_consent_group cg
+    ON prt."consent_group.id" = cg.id
+  WHERE cg."study.id" IN (SELECT study_row_id FROM base_study)
+),
+-- metastatic samples for participants in this study
+eligible_samples AS (
+  SELECT DISTINCT
+    smp.id               AS sample_row_id,
+    smp."participant.id" AS participant_row_id
+  FROM df_sample smp
+  JOIN study_participants sp
+    ON sp.participant_row_id = smp."participant.id"
+  WHERE COALESCE(smp.tumor_classification, '') = 'Metastatic'
+),
+-- all sequencing + pathology files
+file_data AS (
+  SELECT
+    id               AS file_row_id,
+    file_name,
+    file_type,
+    "sample.id"      AS sample_row_id
+  FROM df_sequencing_file
+  UNION ALL
+  SELECT
+    id               AS file_row_id,
+    file_name,
+    file_type,
+    "sample.id"      AS sample_row_id
+  FROM df_pathology_file
+),
+-- keep only samples that actually have at least one dicom file
+samples_with_dicom AS (
+  SELECT DISTINCT
+    es.sample_row_id,
+    es.participant_row_id
+  FROM eligible_samples es
+  JOIN file_data fd
+    ON fd.sample_row_id = es.sample_row_id
+  WHERE LOWER(COALESCE(fd.file_type, '')) = 'dicom'
+)
 SELECT DISTINCT
-    fd.file_name AS "File Name",
-    fd.data_category AS "Data Category",
-    COALESCE(fd.file_description, '') AS "File Description",
-    fd.file_type AS "File Type",
-    CASE     
-        WHEN fd.file_size &gt;= 1024 * 1024 * 1024 THEN 
-            RTRIM(RTRIM(printf('%.2f', fd.file_size / (1024.0 * 1024.0 * 1024.0)), '0'), '.') || ' GB'
-        WHEN fd.file_size &gt;= 1024 * 1024 THEN 
-            RTRIM(RTRIM(printf('%.2f', fd.file_size / (1024.0 * 1024.0)), '0'), '.') || ' MB'
-        WHEN fd.file_size &gt;= 1024 THEN 
-            RTRIM(RTRIM(printf('%.2f', fd.file_size / 1024.0), '0'), '.') || ' KB'
-        ELSE 
-            RTRIM(RTRIM(printf('%.2f', fd.file_size), '0'), '.') || ' Bytes'
-    END AS "File Size",
-    fd.file_access AS "File Access",
-    std.dbgap_accession AS "Study ID",
-    prt.participant_id AS "Participant ID",
-    smp.sample_id AS "Sample ID"    
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-JOIN 
-    file_data fd ON smp.id = fd."sample.id"
-WHERE 
-    std.dbgap_accession = 'phs000720' 
-    AND fd.file_type = 'dicom' 
-    AND smp.tumor_classification = 'Metastatic'
-Order by fd.file_name asc LIMIT 100;</t>
+  smp.sample_id                         AS "Sample ID",
+  prt.participant_id                    AS "Participant ID",
+  'phs000720'                           AS "Study ID",
+  COALESCE(smp.anatomic_site, '')       AS "Sample Anatomic Site",
+  COALESCE(
+    CASE
+      WHEN smp.participant_age_at_collection = -999 THEN 'Not Reported'
+      ELSE CAST(smp.participant_age_at_collection AS TEXT)
+    END,
+    ''
+  )                                     AS "Age at Sample Collection (days)",
+  COALESCE(smp.sample_tumor_status, '')       AS "Sample Tumor Status",
+  COALESCE(smp.tumor_classification, '')      AS "Sample Tumor Classification",
+  ''                                    AS "Sample Diagnosis",
+  ''                                    AS "Diagnosis Category"
+FROM samples_with_dicom swd
+JOIN df_sample smp
+  ON smp.id = swd.sample_row_id
+JOIN df_participant prt
+  ON prt.id = swd.participant_row_id
+ORDER BY smp.sample_id ASC;</t>
+  </si>
+  <si>
+    <t>/* Files — TC02 for phs000720
+   Filters:
+     - Study = phs000720
+     - Sample tumor_classification = 'Metastatic'
+     - File Type = 'dicom'
+   Output columns:
+     File Name | Data Category | File Description | File Type | File Size |
+     File Access | Study ID | [Participant ID] | [Sample ID]
+*/
+WITH base_study AS (
+  SELECT std.id AS study_row_id, std.dbgap_accession
+  FROM df_study std
+  WHERE std.dbgap_accession = 'phs000720'
+),
+-- Samples that are:
+--   - Metastatic
+--   - In phs000720 (via consent_group -&gt; study)
+eligible_samples AS (
+  SELECT DISTINCT
+    smp.id               AS sample_row_id,
+    smp."participant.id" AS participant_row_id
+  FROM df_sample smp
+  JOIN df_participant prt
+    ON smp."participant.id" = prt.id
+  JOIN df_consent_group cg
+    ON prt."consent_group.id" = cg.id
+  JOIN base_study bs
+    ON cg."study.id" = bs.study_row_id
+  WHERE COALESCE(smp.tumor_classification, '') = 'Metastatic'
+),
+file_data AS (
+  SELECT
+    file_name,
+    REPLACE(COALESCE(data_category, ''), ';', ', ') AS data_category,
+    COALESCE(file_description, '')                  AS file_description,
+    COALESCE(file_type, '')                         AS file_type,
+    COALESCE(file_size, 0)                          AS file_size,
+    COALESCE(file_access, '')                       AS file_access,
+    "participant.id"                                AS participant_row_id,
+    "sample.id"                                     AS sample_row_id
+  FROM df_sequencing_file
+  UNION ALL
+  SELECT
+    file_name,
+    REPLACE(COALESCE(data_category, ''), ';', ', ') AS data_category,
+    COALESCE(file_description, '')                  AS file_description,
+    COALESCE(file_type, '')                         AS file_type,
+    COALESCE(file_size, 0)                          AS file_size,
+    COALESCE(file_access, '')                       AS file_access,
+    "participant.id"                                AS participant_row_id,
+    "sample.id"                                     AS sample_row_id
+  FROM df_pathology_file
+),
+-- Files that:
+--   - Belong to an eligible metastatic sample
+--   - Are dicom
+eligible_files AS (
+  SELECT DISTINCT
+    fd.*
+  FROM file_data fd
+  JOIN eligible_samples es
+    ON fd.sample_row_id = es.sample_row_id
+  WHERE LOWER(COALESCE(fd.file_type, '')) = 'dicom'
+)
+SELECT DISTINCT
+  ef.file_name                    AS "File Name",
+  ef.data_category                AS "Data Category",
+  ef.file_description             AS "File Description",
+  ef.file_type                    AS "File Type",
+  CASE
+    WHEN ef.file_size &gt;= 1024 * 1024 * 1024 THEN
+      CASE
+        WHEN ROUND(ef.file_size / (1024.0 * 1024.0 * 1024.0), 2)
+             = CAST(ROUND(ef.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT)
+        THEN CAST(CAST(ROUND(ef.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
+        ELSE ROUND(ef.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
+      END
+    WHEN ef.file_size &gt;= 1024 * 1024 THEN
+      CASE
+        WHEN ROUND(ef.file_size / (1024.0 * 1024.0), 2)
+             = CAST(ROUND(ef.file_size / (1024.0 * 1024.0), 0) AS INT)
+        THEN CAST(CAST(ROUND(ef.file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
+        ELSE ROUND(ef.file_size / (1024.0 * 1024.0), 2) || ' MB'
+      END
+    WHEN ef.file_size &gt;= 1024 THEN
+      CASE
+        WHEN ROUND(ef.file_size / 1024.0, 2)
+             = CAST(ROUND(ef.file_size / 1024.0, 0) AS INT)
+        THEN CAST(CAST(ROUND(ef.file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
+        ELSE ROUND(ef.file_size / 1024.0, 2) || ' KB'
+      END
+    ELSE
+      CASE
+        WHEN ROUND(ef.file_size, 2)
+             = CAST(ROUND(ef.file_size, 0) AS INT)
+        THEN CAST(CAST(ROUND(ef.file_size, 0) AS INT) AS TEXT) || ' Bytes'
+        ELSE ROUND(ef.file_size, 2) || ' Bytes'
+      END
+  END                               AS "File Size",
+  ef.file_access                   AS "File Access",
+  bs.dbgap_accession               AS "Study ID",
+  '[' || prt.participant_id || ']' AS "[Participant ID]",
+  '[' || smp.sample_id      || ']' AS "[Sample ID]"
+FROM eligible_files ef
+JOIN df_sample smp
+  ON smp.id = ef.sample_row_id
+JOIN df_participant prt
+  ON prt.id = smp."participant.id"
+JOIN df_consent_group cg
+  ON prt."consent_group.id" = cg.id
+JOIN base_study bs
+  ON cg."study.id" = bs.study_row_id
+ORDER BY ef.file_name ASC
+LIMIT 100;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -297,14 +578,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -630,19 +914,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="75.81640625" customWidth="1"/>
-    <col min="4" max="4" width="70.1796875" customWidth="1"/>
-    <col min="5" max="5" width="63.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="75.83203125" customWidth="1"/>
+    <col min="4" max="4" width="70.1640625" customWidth="1"/>
+    <col min="5" max="5" width="63.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -659,15 +943,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -676,7 +960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -685,33 +969,33 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/InputFiles/CCDI/TC02_CCDI_phs000720_Filetype-dicom_Tumorclassf-Metastatic.xlsx
+++ b/InputFiles/CCDI/TC02_CCDI_phs000720_Filetype-dicom_Tumorclassf-Metastatic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leungvw/git2/Commons_Automation/InputFiles/CCDI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03272A04-0EEE-8C4F-81AA-CEA73E249357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EAEAA0-3A03-5141-9CEF-37AE9356424D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="35080" windowHeight="22500" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="34980" windowHeight="22500" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,8 +490,8 @@
   END                               AS "File Size",
   ef.file_access                   AS "File Access",
   bs.dbgap_accession               AS "Study ID",
-  '[' || prt.participant_id || ']' AS "[Participant ID]",
-  '[' || smp.sample_id      || ']' AS "[Sample ID]"
+  prt.participant_id AS "[Participant ID]",
+  smp.sample_id AS "[Sample ID]"
 FROM eligible_files ef
 JOIN df_sample smp
   ON smp.id = ef.sample_row_id
@@ -509,9 +509,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -578,14 +585,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -982,7 +992,7 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2"/>
@@ -995,7 +1005,7 @@
       <c r="C7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
